--- a/datasource/komtopp50_2020.xlsx
+++ b/datasource/komtopp50_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiu\Documents\GitHub\Databehandling-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiu\Documents\GitHub\Databehandling_Xiu\datasource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABEB85-767B-47C1-878D-E9C60AED1243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0701532D-C895-4D18-8831-2FA36891979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1520" windowWidth="14400" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topp 50" sheetId="3" r:id="rId1"/>
@@ -1882,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -3337,7 +3337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
